--- a/biology/Médecine/Membre_inférieur_(anatomie_humaine)/Membre_inférieur_(anatomie_humaine).xlsx
+++ b/biology/Médecine/Membre_inférieur_(anatomie_humaine)/Membre_inférieur_(anatomie_humaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres inférieurs  chez l'Homme sont les membres de la locomotion, permettant aux humains de se soutenir et de se déplacer d'un endroit à un autre en marchant.
 Les membres inférieurs sont formés de six parties ou régions principales :
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,37 +534,187 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ostéologie
-Le fémur est l'os de la cuisse. C'est l'os le plus long du squelette humain. Son extrémité supérieure est composée d'une tête (elle a la forme de deux tiers de sphère) qui s'articule avec l'os coxal (le bassin) dans la cavité cotyloïdienne, ainsi que d'un col qui relie le corps fémoral à la tête.
+          <t>Ostéologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le fémur est l'os de la cuisse. C'est l'os le plus long du squelette humain. Son extrémité supérieure est composée d'une tête (elle a la forme de deux tiers de sphère) qui s'articule avec l'os coxal (le bassin) dans la cavité cotyloïdienne, ainsi que d'un col qui relie le corps fémoral à la tête.
 La patella ou rotule est l'os du genou, qui s'attache grâce à des tendons, par-dessus l'articulation même du genou, pour la protéger.
 Le tibia et la fibula (ou péroné) sont les os de la jambe. Le tibia s'articule en haut via les plateaux tibiaux à la partie inférieure du fémur (condyles fémoraux). La partie inférieure de la fibula forme, avec la partie inférieure du tibia, le tenon de l'articulation de la cheville : la pince bimalléolaire.
 La mortaise est le talus (ou astragale), assis sur l'os calcanéum.
-Les sept os du tarse, les cinq métatarsiens ainsi que quatorze phalanges forment les os du pied.
-Arthrologie
-Muscles
-De la cuisse
+Les sept os du tarse, les cinq métatarsiens ainsi que quatorze phalanges forment les os du pied.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive du membre inférieur humain</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Muscles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De la cuisse
 De la jambe
 Du pied
-Voir la liste
-Vaisseaux
-Hanche
-Cuisse
-L'artère fémorale fait suite à l'artère iliaque externe et se termine en devenant l'artère poplitée.
+Voir la liste</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive du membre inférieur humain</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vaisseaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cuisse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'artère fémorale fait suite à l'artère iliaque externe et se termine en devenant l'artère poplitée.
 Elle donne six collatérales :
 l'artère épigastrique superficielle
 l'artère circonflexe iliaque superficielle
 l'artère pudentale externe supérieure
 l'artère pudentale interne supérieure
 l'artère profonde de la cuisse ou fémorale profonde qui irrigue les muscles et les téguments de quasiment toute la cuisse
-l'artère descendante du genou
-Genou
-L'artère poplitée, palpable dans le creux poplité, irrigue le genou et donne :
+l'artère descendante du genou</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive du membre inférieur humain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vaisseaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'artère poplitée, palpable dans le creux poplité, irrigue le genou et donne :
 les artères supéro-latérales et supéro-médiales du genou
 l'artère moyenne du genou
 les artères inféro-latérales et inféro-médiales du genou
-les artères surales médiales et latérales fg
-Mollet
-L'artère tibiale antérieure donne :
+les artères surales médiales et latérales fg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive du membre inférieur humain</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vaisseaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mollet</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère tibiale antérieure donne :
 l'artère récurrente tibiale supérieure
 l'artère circonflexe de la fibula
 l'artère récurrente tibiale inférieure
@@ -560,116 +722,238 @@
 l'artère malléolaire antéro-latéral
 L’arrière du genou et le genou arrière 
 L'artère tibiale postérieure
-Pied
-L'artère dorsale du pied est la prolongation pédieuse de l'artère tibiale antérieure.
-Veines
-Les veines du corps humain ont deux réseaux : un réseau superficiel et un autre profond. Le profond suit le trajet des artères.
-Nerfs
-La jambe est innervée par 3 principaux nerfs qui sont : Le nerf saphène qui est un nerf superficiel, Le nerf tibial et le nerf fibulaire commun qui prennent naissance à partir du nerf sciatique.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive du membre inférieur humain</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vaisseaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pied</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère dorsale du pied est la prolongation pédieuse de l'artère tibiale antérieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive du membre inférieur humain</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vaisseaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Veines</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les veines du corps humain ont deux réseaux : un réseau superficiel et un autre profond. Le profond suit le trajet des artères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Anatomie descriptive du membre inférieur humain</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nerfs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La jambe est innervée par 3 principaux nerfs qui sont : Le nerf saphène qui est un nerf superficiel, Le nerf tibial et le nerf fibulaire commun qui prennent naissance à partir du nerf sciatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Anatomie topographique du membre inférieur humain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jambes dérivent des pattes postérieures des tétrapodes.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Membre_inférieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Membre_inf%C3%A9rieur_(anatomie_humaine)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Classification internationale des phénomènes douloureux (jambe/pied)
-Douleurs concernant le système jambe-pied (groupe XXXI)[1]
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Classification internationale des phénomènes douloureux (jambe/pied)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Douleurs concernant le système jambe-pied (groupe XXXI)
 Lateral Femoral Cutaneous Neuropathy (Meralgia Paresthetica) (XXXI-1)
 Obturator Neuralgia (XXXI-2)
 Femoral Neuralgia (XXXI-3)
 Sciatica Neuralgia (XXXI-4)
 Interdigital Neuralgia of the Foot (Morton’s Metatarsalgia) (XXXI-5)
 Injection Neuropathy (XXXI-6)
-Piriformis Syndrome (XXXI-8)[2],[3]
-Painful Legs and Moving Toes (XXXI-9)[4],[5],[6]
+Piriformis Syndrome (XXXI-8),
+Painful Legs and Moving Toes (XXXI-9)
 Metastatic Disease (XXXI-10)
 Peroneal Muscular Atrophy (Charcot-Marie-Tooth Disease) (XXXI-11)
-Douleurs d'origine musculosquelettiques de la Hanche et de la cuisse (GROUP XXXII)[1]
+Douleurs d'origine musculosquelettiques de la Hanche et de la cuisse (GROUP XXXII)
 Ischial Bursitis (XXXII-1)
 Trochanteric Bursitis (XXXII-2)
 Osteoarthritis of the Hip (XXXII-3)
-Syndromes douloureux de la jambe, d'origine musculo-squelettique (groupe XXXIII)[1]
+Syndromes douloureux de la jambe, d'origine musculo-squelettique (groupe XXXIII)
 Spinal Stenosis (sténose spinale) (XXXIII-1)
 Osteoarthritis of the Knee (XXXIII-2)
 Night Cramps (crampes nocturnes du mollet) (XXXIII-3)
